--- a/src/main/resources/static/user-template.xlsx
+++ b/src/main/resources/static/user-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iplus_alskar\IdeaProjects\YIPIN\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68B756-9FF2-4542-AB3B-DB0D3AFB5058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB1588-D7B1-4C73-BCD5-46317FC3B538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>iplus_alskar</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7F093B3C-B732-4527-917B-7A7F44B3C4D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>iplus_alskar:
+不允许为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A14DEA23-4508-48DF-9D72-B0272542C1E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>iplus_alskar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不允许为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FCB7916F-0F0F-4F42-8975-7BE4F69EA380}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>iplus_alskar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不允许为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{777AA91F-ED26-4830-B7BB-81656932C527}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>iplus_alskar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不允许为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{03613AD1-056E-4CBB-AD2A-3C20A27C28A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>iplus_alskar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不允许为空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
@@ -36,28 +166,34 @@
   </si>
   <si>
     <t>玩家所在区服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家总势力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家vip等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家门客数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家所在联盟名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家联盟等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +207,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,11 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,22 +529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -402,27 +554,29 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>